--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>76.46791777677333</v>
+        <v>30.00338161839667</v>
       </c>
       <c r="R2">
-        <v>688.21125999096</v>
+        <v>270.03043456557</v>
       </c>
       <c r="S2">
-        <v>0.01426440930215093</v>
+        <v>0.007712508886743592</v>
       </c>
       <c r="T2">
-        <v>0.01605783500085802</v>
+        <v>0.008143500466771553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>33.61584580325</v>
+        <v>22.68235924885</v>
       </c>
       <c r="R3">
-        <v>302.54261222925</v>
+        <v>204.14123323965</v>
       </c>
       <c r="S3">
-        <v>0.006270736768004409</v>
+        <v>0.005830606013150285</v>
       </c>
       <c r="T3">
-        <v>0.007059139584507354</v>
+        <v>0.006156432814134265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>43.6251771262</v>
+        <v>30.50960869347534</v>
       </c>
       <c r="R4">
-        <v>392.6265941358</v>
+        <v>274.586478241278</v>
       </c>
       <c r="S4">
-        <v>0.008137888417774665</v>
+        <v>0.007842636912474549</v>
       </c>
       <c r="T4">
-        <v>0.009161043173958447</v>
+        <v>0.008280900326381641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>21.37140253573</v>
+        <v>6.804280419503001</v>
       </c>
       <c r="R5">
-        <v>128.22841521438</v>
+        <v>40.825682517018</v>
       </c>
       <c r="S5">
-        <v>0.003986644883160077</v>
+        <v>0.001749071950314268</v>
       </c>
       <c r="T5">
-        <v>0.002991916659371533</v>
+        <v>0.001231209234501576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>41.20308895373334</v>
+        <v>37.43042840594867</v>
       </c>
       <c r="R6">
-        <v>370.8278005836</v>
+        <v>336.873855653538</v>
       </c>
       <c r="S6">
-        <v>0.007686069431950815</v>
+        <v>0.009621665830444001</v>
       </c>
       <c r="T6">
-        <v>0.008652418205974646</v>
+        <v>0.01015934520555523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>1295.069646086009</v>
+        <v>753.0778676060222</v>
       </c>
       <c r="R7">
-        <v>11655.62681477408</v>
+        <v>6777.700808454199</v>
       </c>
       <c r="S7">
-        <v>0.241583713061084</v>
+        <v>0.193582170843039</v>
       </c>
       <c r="T7">
-        <v>0.2719573815541423</v>
+        <v>0.2043999587901348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>569.3219168643334</v>
@@ -948,10 +948,10 @@
         <v>5123.897251779</v>
       </c>
       <c r="S8">
-        <v>0.1062019351768554</v>
+        <v>0.1463468484679665</v>
       </c>
       <c r="T8">
-        <v>0.1195544179726118</v>
+        <v>0.1545250250353523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>738.8411289842667</v>
+        <v>765.7840488982979</v>
       </c>
       <c r="R9">
-        <v>6649.5701608584</v>
+        <v>6892.056440084681</v>
       </c>
       <c r="S9">
-        <v>0.1378242350453547</v>
+        <v>0.1968483538813258</v>
       </c>
       <c r="T9">
-        <v>0.1551525042922078</v>
+        <v>0.2078486631595479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>361.9485860607067</v>
+        <v>170.7858485448467</v>
       </c>
       <c r="R10">
-        <v>2171.69151636424</v>
+        <v>1024.71509126908</v>
       </c>
       <c r="S10">
-        <v>0.06751828646592159</v>
+        <v>0.04390129723992637</v>
       </c>
       <c r="T10">
-        <v>0.05067145231392785</v>
+        <v>0.03090306408417565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>697.8203589214223</v>
+        <v>939.4950064644755</v>
       </c>
       <c r="R11">
-        <v>6280.3832302928</v>
+        <v>8455.45505818028</v>
       </c>
       <c r="S11">
-        <v>0.130172175579397</v>
+        <v>0.2415015640092273</v>
       </c>
       <c r="T11">
-        <v>0.1465383720334977</v>
+        <v>0.2549971906827296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>49.89931559564977</v>
+        <v>24.04901100153333</v>
       </c>
       <c r="R12">
-        <v>449.0938403608479</v>
+        <v>216.4410990138</v>
       </c>
       <c r="S12">
-        <v>0.009308273093448238</v>
+        <v>0.00618191020684794</v>
       </c>
       <c r="T12">
-        <v>0.01047857715741369</v>
+        <v>0.006527368641550027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>21.93609748401667</v>
+        <v>18.180894209</v>
       </c>
       <c r="R13">
-        <v>197.42487735615</v>
+        <v>163.628047881</v>
       </c>
       <c r="S13">
-        <v>0.004091983698540566</v>
+        <v>0.004673483473938853</v>
       </c>
       <c r="T13">
-        <v>0.004606457769510092</v>
+        <v>0.004934647779386797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>28.46770965689333</v>
+        <v>24.45477394694667</v>
       </c>
       <c r="R14">
-        <v>256.20938691204</v>
+        <v>220.09296552252</v>
       </c>
       <c r="S14">
-        <v>0.005310397801417103</v>
+        <v>0.006286213460468285</v>
       </c>
       <c r="T14">
-        <v>0.005978059790475635</v>
+        <v>0.006637500585255534</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>13.94595787170733</v>
+        <v>5.45392571902</v>
       </c>
       <c r="R15">
-        <v>83.675747230244</v>
+        <v>32.72355431412</v>
       </c>
       <c r="S15">
-        <v>0.002601494286444544</v>
+        <v>0.001401956989734445</v>
       </c>
       <c r="T15">
-        <v>0.001952382096471962</v>
+        <v>0.0009868675738724986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>26.88717044996444</v>
+        <v>30.00211096121333</v>
       </c>
       <c r="R16">
-        <v>241.98453404968</v>
+        <v>270.01899865092</v>
       </c>
       <c r="S16">
-        <v>0.005015562283186494</v>
+        <v>0.007712182258400722</v>
       </c>
       <c r="T16">
-        <v>0.00564615539795195</v>
+        <v>0.008143155585734569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>463.0074520082786</v>
+        <v>98.269963388845</v>
       </c>
       <c r="R17">
-        <v>2778.044712049671</v>
+        <v>589.61978033307</v>
       </c>
       <c r="S17">
-        <v>0.0863699182273036</v>
+        <v>0.02526075145715311</v>
       </c>
       <c r="T17">
-        <v>0.06481931669017699</v>
+        <v>0.01778158437616468</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>203.5414009559125</v>
+        <v>74.29144625452501</v>
       </c>
       <c r="R18">
-        <v>1221.248405735475</v>
+        <v>445.7486775271501</v>
       </c>
       <c r="S18">
-        <v>0.03796883631177203</v>
+        <v>0.01909696202696491</v>
       </c>
       <c r="T18">
-        <v>0.02849503711203267</v>
+        <v>0.01344276088487984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>264.1471442125099</v>
+        <v>99.92800703096302</v>
       </c>
       <c r="R19">
-        <v>1584.88286527506</v>
+        <v>599.5680421857782</v>
       </c>
       <c r="S19">
-        <v>0.04927429817091224</v>
+        <v>0.02568695929222605</v>
       </c>
       <c r="T19">
-        <v>0.03697961516440214</v>
+        <v>0.01808160120638394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>129.4022241170165</v>
+        <v>22.2860341616295</v>
       </c>
       <c r="R20">
-        <v>517.608896468066</v>
+        <v>89.14413664651801</v>
       </c>
       <c r="S20">
-        <v>0.02413883289986031</v>
+        <v>0.005728728804904088</v>
       </c>
       <c r="T20">
-        <v>0.01207721921691544</v>
+        <v>0.002688383328193287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>249.4815837280867</v>
+        <v>122.595741902173</v>
       </c>
       <c r="R21">
-        <v>1496.88950236852</v>
+        <v>735.5744514130381</v>
       </c>
       <c r="S21">
-        <v>0.04653856842336042</v>
+        <v>0.03151380604103919</v>
       </c>
       <c r="T21">
-        <v>0.03492649138560434</v>
+        <v>0.02218324352239914</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>10.87103744794133</v>
+        <v>10.5520652621</v>
       </c>
       <c r="R22">
-        <v>97.839337031472</v>
+        <v>94.9685873589</v>
       </c>
       <c r="S22">
-        <v>0.00202789525600953</v>
+        <v>0.002712457487043541</v>
       </c>
       <c r="T22">
-        <v>0.002282857055645025</v>
+        <v>0.002864035443745665</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>4.778986131650001</v>
+        <v>7.9772919645</v>
       </c>
       <c r="R23">
-        <v>43.01087518485</v>
+        <v>71.7956276805</v>
       </c>
       <c r="S23">
-        <v>0.000891477317718524</v>
+        <v>0.002050600027385923</v>
       </c>
       <c r="T23">
-        <v>0.00100356035582721</v>
+        <v>0.002165191966116459</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>6.20195956684</v>
+        <v>10.73010323134</v>
       </c>
       <c r="R24">
-        <v>55.81763610156</v>
+        <v>96.57092908206</v>
       </c>
       <c r="S24">
-        <v>0.001156920343967674</v>
+        <v>0.002758222975660976</v>
       </c>
       <c r="T24">
-        <v>0.001302376817648348</v>
+        <v>0.002912358406271997</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>3.038258710786001</v>
+        <v>2.39303729031</v>
       </c>
       <c r="R25">
-        <v>18.229552264716</v>
+        <v>14.35822374186</v>
       </c>
       <c r="S25">
-        <v>0.0005667601142611582</v>
+        <v>0.000615141373148023</v>
       </c>
       <c r="T25">
-        <v>0.0004253448896058056</v>
+        <v>0.0004330111971710166</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>5.857624164613334</v>
+        <v>13.16412690914</v>
       </c>
       <c r="R26">
-        <v>52.71861748152001</v>
+        <v>118.47714218226</v>
       </c>
       <c r="S26">
-        <v>0.001092687640143825</v>
+        <v>0.003383900090472142</v>
       </c>
       <c r="T26">
-        <v>0.001230068309261196</v>
+        <v>0.003572999703589754</v>
       </c>
     </row>
   </sheetData>
